--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail15 Features.xlsx
@@ -4699,7 +4699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4710,29 +4710,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4753,115 +4751,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4878,72 +4866,66 @@
         <v>4.758561949621901e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5147550302448397</v>
+        <v>1.632422253866077e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.184470880859055</v>
+        <v>3.343171464792267e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.632422253866077e-06</v>
+        <v>-0.05719743522936902</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.343171464792267e-06</v>
+        <v>0.05695016011981454</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.05719743522936902</v>
+        <v>0.006502565772248986</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.05695016011981454</v>
+        <v>1.930319999585801</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.006502565772248986</v>
+        <v>2.931105401143897</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.960587673098564</v>
+        <v>4.782301554684551</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.931105401143897</v>
+        <v>3.827951273252574e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.782301554684551</v>
+        <v>4564546516.025181</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.827951273252574e-17</v>
+        <v>2.632503333731159e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>4564546516.025181</v>
+        <v>797.5568975963437</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.632503333731159e-08</v>
+        <v>9.851634901340111e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>797.5568975963437</v>
+        <v>8.376569929985454</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>9.851634901340111e-05</v>
+        <v>1.571440020794281</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.376569929985454</v>
+        <v>0.006912589153483135</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.571440020794281</v>
+        <v>4.377479630010416</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006912589153483135</v>
+        <v>0.9620619680265268</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.377479630010416</v>
+        <v>1.057776720864422</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9620619680265268</v>
+        <v>144</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.057776720864422</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>144</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.828304241407944</v>
       </c>
     </row>
@@ -4958,72 +4940,66 @@
         <v>4.65519544590063e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.5383050849919332</v>
+        <v>1.481167643787753e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.163419448345897</v>
+        <v>3.317361681750941e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.481167643787753e-06</v>
+        <v>-0.05303908025280107</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.317361681750941e-06</v>
+        <v>0.04443861567293841</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.05303908025280107</v>
+        <v>0.004784452334829009</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.04443861567293841</v>
+        <v>1.925123520712885</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.004784452334829009</v>
+        <v>2.936869092075606</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.95787230563666</v>
+        <v>5.367921806492268</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.936869092075606</v>
+        <v>5.030129115658526e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.367921806492268</v>
+        <v>3423678448.79532</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.030129115658526e-17</v>
+        <v>3.506438032487831e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3423678448.79532</v>
+        <v>589.6103126611156</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.506438032487831e-08</v>
+        <v>0.0001143718153180249</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>589.6103126611156</v>
+        <v>10.25742547039027</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001143718153180249</v>
+        <v>1.592726247877907</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.25742547039027</v>
+        <v>0.01203360507586516</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.592726247877907</v>
+        <v>4.866638967641974</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01203360507586516</v>
+        <v>0.9611173144181407</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.866638967641974</v>
+        <v>1.087905310241482</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9611173144181407</v>
+        <v>144</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.087905310241482</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>144</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>4.54424398761153</v>
       </c>
     </row>
@@ -5038,72 +5014,66 @@
         <v>4.576755627826038e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.5795093650028158</v>
+        <v>1.406977776952257e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.093174576875434</v>
+        <v>3.293375361748102e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.406977776952257e-06</v>
+        <v>-0.0512379151157285</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.293375361748102e-06</v>
+        <v>0.04231559670185126</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0512379151157285</v>
+        <v>0.004415401348723841</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.04231559670185126</v>
+        <v>1.924994911378457</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.004415401348723841</v>
+        <v>2.69540393325733</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.959607137209593</v>
+        <v>4.853769355597908</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.69540393325733</v>
+        <v>6.637120579913097e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.853769355597908</v>
+        <v>2672018874.199395</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.637120579913097e-17</v>
+        <v>4.497443240138333e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2672018874.199395</v>
+        <v>473.8694934546484</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.497443240138333e-08</v>
+        <v>0.0001316996964897653</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>473.8694934546484</v>
+        <v>12.88289959892519</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001316996964897653</v>
+        <v>1.131892712842209</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.88289959892519</v>
+        <v>0.02185808037008634</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.131892712842209</v>
+        <v>4.725489481964611</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02185808037008634</v>
+        <v>0.9612363439996759</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.725489481964611</v>
+        <v>1.049586490733313</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9612363439996759</v>
+        <v>144</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.049586490733313</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>144</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>5.254574666815193</v>
       </c>
     </row>
@@ -5118,72 +5088,66 @@
         <v>4.503789638973217e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6272625243819562</v>
+        <v>1.373679212974241e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.001343821594687</v>
+        <v>3.270256214635676e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.373679212974241e-06</v>
+        <v>-0.05068644869317676</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.270256214635676e-06</v>
+        <v>0.04303001323869462</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05068644869317676</v>
+        <v>0.004420641441064414</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.04303001323869462</v>
+        <v>1.928089826560135</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.004420641441064414</v>
+        <v>2.534824167737804</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.963392398979495</v>
+        <v>4.741108101942145</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.534824167737804</v>
+        <v>9.97654793628554e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.741108101942145</v>
+        <v>1783833225.724277</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.97654793628554e-17</v>
+        <v>6.735680977817455e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1783833225.724277</v>
+        <v>317.4598387519825</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.735680977817455e-08</v>
+        <v>0.0001669612925027601</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>317.4598387519825</v>
+        <v>13.31404189190905</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001669612925027601</v>
+        <v>1.044606011358736</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.31404189190905</v>
+        <v>0.02959617838579444</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.044606011358736</v>
+        <v>3.935410654696102</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02959617838579444</v>
+        <v>0.9608474540852999</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.935410654696102</v>
+        <v>1.039493578972578</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9608474540852999</v>
+        <v>144</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.039493578972578</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>144</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>3.635755403145735</v>
       </c>
     </row>
@@ -5198,72 +5162,66 @@
         <v>4.429513758448782e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.6789575899540873</v>
+        <v>1.374463355875161e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.8929004296583392</v>
+        <v>3.247697583842791e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.374463355875161e-06</v>
+        <v>-0.05031259244270627</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.247697583842791e-06</v>
+        <v>0.04410748989359232</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.05031259244270627</v>
+        <v>0.004476822516384585</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.04410748989359232</v>
+        <v>1.930208508717994</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.004476822516384585</v>
+        <v>2.217300620412622</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.967323813560238</v>
+        <v>4.198321288835492</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.217300620412622</v>
+        <v>1.289915263624811e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.198321288835492</v>
+        <v>1360172161.708359</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.289915263624811e-16</v>
+        <v>8.824173909715047e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1360172161.708359</v>
+        <v>238.6431351155046</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.824173909715047e-08</v>
+        <v>0.0001878201435656848</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>238.6431351155046</v>
+        <v>13.74572141056926</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001878201435656848</v>
+        <v>1.003612794415077</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>13.74572141056926</v>
+        <v>0.035487650185953</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.003612794415077</v>
+        <v>3.479730351458769</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.035487650185953</v>
+        <v>0.961644195434909</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.479730351458769</v>
+        <v>0.9841385176316476</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.961644195434909</v>
+        <v>135</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9841385176316476</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>135</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>2.720836388690772</v>
       </c>
     </row>
@@ -5278,72 +5236,66 @@
         <v>4.35211397775561e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.734569447344824</v>
+        <v>1.374463355875161e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.7666127955191517</v>
+        <v>3.225666217945888e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.374463355875161e-06</v>
+        <v>-0.05009721300209118</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.225666217945888e-06</v>
+        <v>0.04541477373494177</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.05009721300209118</v>
+        <v>0.004572428354412236</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.04541477373494177</v>
+        <v>1.934313746632913</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.004572428354412236</v>
+        <v>2.312311559918674</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.968426889442745</v>
+        <v>4.169953834833562</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.312311559918674</v>
+        <v>1.19355661421273e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.169953834833562</v>
+        <v>1480788845.675338</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.19355661421273e-16</v>
+        <v>8.113769133876484e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1480788845.675338</v>
+        <v>261.7154085136231</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.113769133876484e-08</v>
+        <v>0.0001915593292192666</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>261.7154085136231</v>
+        <v>14.40486901823953</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001915593292192666</v>
+        <v>0.9504630676334286</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>14.40486901823953</v>
+        <v>0.03974860897726513</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.9504630676334286</v>
+        <v>3.28729010300661</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.03974860897726513</v>
+        <v>0.9608612088824049</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.28729010300661</v>
+        <v>1.040232384535642</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9608612088824049</v>
+        <v>135</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.040232384535642</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>135</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>2.498982790024879</v>
       </c>
     </row>
@@ -5358,72 +5310,66 @@
         <v>4.267349305679891e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.7929216703276458</v>
+        <v>1.374463355875161e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.6228229320465335</v>
+        <v>3.203986464682162e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.374463355875161e-06</v>
+        <v>-0.05066177213014588</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.203986464682162e-06</v>
+        <v>0.04670011659418848</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05066177213014588</v>
+        <v>0.004747815036909728</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.04670011659418848</v>
+        <v>1.926886344069751</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.004747815036909728</v>
+        <v>2.256908458441593</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.961301894978451</v>
+        <v>4.294987810559281</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.256908458441593</v>
+        <v>1.347866954977725e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.294987810559281</v>
+        <v>1272385527.156944</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.347866954977725e-16</v>
+        <v>9.406683715781698e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1272385527.156944</v>
+        <v>218.2149330035338</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>9.406683715781698e-08</v>
+        <v>0.0001718666585676263</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>218.2149330035338</v>
+        <v>13.27315184159601</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001718666585676263</v>
+        <v>1.013451930520131</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>13.27315184159601</v>
+        <v>0.03027887665249519</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.013451930520131</v>
+        <v>3.425766353730065</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.03027887665249519</v>
+        <v>0.9608985017554648</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.425766353730065</v>
+        <v>1.079384784953456</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9608985017554648</v>
+        <v>109</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.079384784953456</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>2.197576137825197</v>
       </c>
     </row>
@@ -5438,72 +5384,66 @@
         <v>4.166108645906715e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.8502543964439709</v>
+        <v>1.374463355875161e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.4678423984708311</v>
+        <v>3.182288974686141e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.374463355875161e-06</v>
+        <v>-0.05236010276462381</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.182288974686141e-06</v>
+        <v>0.04695320057137666</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05236010276462381</v>
+        <v>0.004946171284224254</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.04695320057137666</v>
+        <v>1.916252932418147</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.004946171284224254</v>
+        <v>2.109273665879087</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.954311213272772</v>
+        <v>4.203813447659027</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.109273665879087</v>
+        <v>1.747768421015901e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.203813447659027</v>
+        <v>950379379.2045226</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.747768421015901e-16</v>
+        <v>1.247136769927131e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>950379379.2045226</v>
+        <v>157.8621078807863</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.247136769927131e-07</v>
+        <v>0.0001266385854170557</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>157.8621078807863</v>
+        <v>11.96832850078327</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001266385854170557</v>
+        <v>1.066571187210721</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>11.96832850078327</v>
+        <v>0.01813982331656518</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.066571187210721</v>
+        <v>3.807621453247876</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01813982331656518</v>
+        <v>0.9624342887063679</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.807621453247876</v>
+        <v>1.160597344161614</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9624342887063679</v>
+        <v>81</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.160597344161614</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>2.1578052087602</v>
       </c>
     </row>
@@ -5518,72 +5458,66 @@
         <v>4.038411152369298e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.8997134091542341</v>
+        <v>1.374463355875161e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.32034424574729</v>
+        <v>3.160277240886576e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.374463355875161e-06</v>
+        <v>-0.05499244141212575</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.160277240886576e-06</v>
+        <v>0.04611228672013967</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05499244141212575</v>
+        <v>0.005150381760239639</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.04611228672013967</v>
+        <v>1.90891494503017</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.005150381760239639</v>
+        <v>2.121792578402186</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.942764354311347</v>
+        <v>4.20537064291632</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.121792578402186</v>
+        <v>1.597974262414139e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.20537064291632</v>
+        <v>1030278788.652798</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.597974262414139e-16</v>
+        <v>1.150639324197115e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1030278788.652798</v>
+        <v>169.6208743203853</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.150639324197115e-07</v>
+        <v>0.0001005791892362306</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>169.6208743203853</v>
+        <v>11.23734100563051</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001005791892362306</v>
+        <v>1.287571339886135</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.23734100563051</v>
+        <v>0.01270092204925929</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.287571339886135</v>
+        <v>4.004203072765921</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01270092204925929</v>
+        <v>0.9626635886715669</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.004203072765921</v>
+        <v>1.245741182347236</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9626635886715669</v>
+        <v>44</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.245741182347236</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>1.830828313471737</v>
       </c>
     </row>
@@ -5598,72 +5532,66 @@
         <v>3.880167239830296e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.9328200515537178</v>
+        <v>1.373508232462287e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.2134797097360832</v>
+        <v>3.137989234818801e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.373508232462287e-06</v>
+        <v>-0.05728220810863855</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.137989234818801e-06</v>
+        <v>0.04769990936493698</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05728220810863855</v>
+        <v>0.00555682218753792</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.04769990936493698</v>
+        <v>1.906777533045968</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.00555682218753792</v>
+        <v>2.143761774891507</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.939671688754468</v>
+        <v>4.406963301055003</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.143761774891507</v>
+        <v>1.455122209857068e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.406963301055003</v>
+        <v>1138186735.07315</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.455122209857068e-16</v>
+        <v>1.039571395838127e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1138186735.07315</v>
+        <v>188.5065777956065</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.039571395838127e-07</v>
+        <v>0.0001015189121326247</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>188.5065777956065</v>
+        <v>11.02075392527547</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001015189121326247</v>
+        <v>1.439402393661424</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>11.02075392527547</v>
+        <v>0.01233018424498493</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.439402393661424</v>
+        <v>3.845626155006033</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01233018424498493</v>
+        <v>0.9630815799989699</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.845626155006033</v>
+        <v>1.23343381292795</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9630815799989699</v>
+        <v>20</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.23343381292795</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>1.376846013324626</v>
       </c>
     </row>
@@ -5678,72 +5606,66 @@
         <v>3.703248915239074e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.9514766145281659</v>
+        <v>1.343289327397304e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.1519989612874024</v>
+        <v>3.116087254891956e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.343289327397304e-06</v>
+        <v>-0.05799332901678842</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.116087254891956e-06</v>
+        <v>0.05139580525440785</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05799332901678842</v>
+        <v>0.006004124459643915</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.05139580525440785</v>
+        <v>1.896675332771518</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.006004124459643915</v>
+        <v>2.162272179369017</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.918725502267011</v>
+        <v>5.740234296449295</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.162272179369017</v>
+        <v>1.595060782022631e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.740234296449295</v>
+        <v>1100796588.325119</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.595060782022631e-16</v>
+        <v>1.083920559489112e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1100796588.325119</v>
+        <v>193.2819893350915</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.083920559489112e-07</v>
+        <v>0.0001037348832359369</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>193.2819893350915</v>
+        <v>9.390996160831227</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001037348832359369</v>
+        <v>1.660542525131544</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.390996160831227</v>
+        <v>0.009148463262971919</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.660542525131544</v>
+        <v>3.79625294990996</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.009148463262971919</v>
+        <v>0.9626101177377082</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.79625294990996</v>
+        <v>1.318345952690589</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9626101177377082</v>
+        <v>21</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.318345952690589</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>1.002026761303016</v>
       </c>
     </row>
@@ -5758,72 +5680,66 @@
         <v>3.521478576158878e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.963413735928533</v>
+        <v>1.291505191496258e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.1137054675792264</v>
+        <v>3.095139994234316e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.291505191496258e-06</v>
+        <v>-0.05792696425619379</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.095139994234316e-06</v>
+        <v>0.05428280670124551</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05792696425619379</v>
+        <v>0.006300882673720631</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.05428280670124551</v>
+        <v>1.881932742171389</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.006300882673720631</v>
+        <v>2.139142585912014</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.895194696761265</v>
+        <v>5.247233825992927</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.139142585912014</v>
+        <v>3.479040059913737e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.247233825992927</v>
+        <v>515507663.0841999</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.479040059913737e-16</v>
+        <v>2.311649473133202e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>515507663.0841999</v>
+        <v>92.45484621281891</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.311649473133202e-07</v>
+        <v>0.0001504653409292307</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>92.45484621281891</v>
+        <v>9.145264692747352</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001504653409292307</v>
+        <v>1.744648771526286</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.145264692747352</v>
+        <v>0.01258429913680295</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.744648771526286</v>
+        <v>3.484199124626406</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01258429913680295</v>
+        <v>0.9615412929785987</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.484199124626406</v>
+        <v>1.411282196299708</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9615412929785987</v>
+        <v>19</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.411282196299708</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.6171665631137142</v>
       </c>
     </row>
@@ -5838,72 +5754,66 @@
         <v>3.341179318783954e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.9720891465007181</v>
+        <v>1.23420988543027e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.08677087465840216</v>
+        <v>3.075300376172074e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.23420988543027e-06</v>
+        <v>-0.05770900999006501</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.075300376172074e-06</v>
+        <v>0.05652093183102982</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05770900999006501</v>
+        <v>0.006523382651651938</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.05652093183102982</v>
+        <v>1.876192463216178</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.006523382651651938</v>
+        <v>2.138477526124997</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.8785017144031</v>
+        <v>4.78727774446948</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.138477526124997</v>
+        <v>4.179679827072923e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.78727774446948</v>
+        <v>442910341.7679029</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4.179679827072923e-16</v>
+        <v>2.708196288266015e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>442910341.7679029</v>
+        <v>81.99259979462343</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.708196288266015e-07</v>
+        <v>0.0001655906319018027</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>81.99259979462343</v>
+        <v>11.06812149560061</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001655906319018027</v>
+        <v>1.226524634804428</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.06812149560061</v>
+        <v>0.02028540108282209</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.226524634804428</v>
+        <v>3.096553110848088</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02028540108282209</v>
+        <v>0.9620025496700992</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.096553110848088</v>
+        <v>1.394521408644232</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9620025496700992</v>
+        <v>8</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.394521408644232</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.4842223646815977</v>
       </c>
     </row>
@@ -5918,72 +5828,66 @@
         <v>3.164516237627414e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.9782106317657934</v>
+        <v>1.176136829423243e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.06888139292037421</v>
+        <v>3.05658250167981e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.176136829423243e-06</v>
+        <v>-0.05735232799565729</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.05658250167981e-06</v>
+        <v>0.05864815116891456</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05735232799565729</v>
+        <v>0.006727042278665923</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.05864815116891456</v>
+        <v>1.869234005566317</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.006727042278665923</v>
+        <v>2.122054384458203</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.866099689681455</v>
+        <v>4.798416313442951</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.122054384458203</v>
+        <v>4.160297758423354e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.798416313442951</v>
+        <v>448628328.9470225</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.160297758423354e-16</v>
+        <v>2.668468753236002e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>448628328.9470225</v>
+        <v>83.7332219597606</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.668468753236002e-07</v>
+        <v>0.0001623679988324316</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>83.7332219597606</v>
+        <v>12.25028514277083</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001623679988324316</v>
+        <v>1.09031659172476</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>12.25028514277083</v>
+        <v>0.02436648214048982</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.09031659172476</v>
+        <v>2.857649733967127</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02436648214048982</v>
+        <v>0.9613065056434537</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.857649733967127</v>
+        <v>1.474396935354782</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9613065056434537</v>
+        <v>8</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.474396935354782</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.425967703729052</v>
       </c>
     </row>
@@ -5998,72 +5902,66 @@
         <v>2.992474480171437e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.9820344931577959</v>
+        <v>1.118552015167916e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.05940993670628947</v>
+        <v>3.039002045680128e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.118552015167916e-06</v>
+        <v>-0.0569041216950076</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.039002045680128e-06</v>
+        <v>0.06072133436639812</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0569041216950076</v>
+        <v>0.006923213858757638</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.06072133436639812</v>
+        <v>1.83168873628527</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.006923213858757638</v>
+        <v>1.897111684505732</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.806052524272996</v>
+        <v>4.847022070681638</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.897111684505732</v>
+        <v>6.117943298229998e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.847022070681638</v>
+        <v>304765656.1777452</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>6.117943298229998e-16</v>
+        <v>3.9006676959636e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>304765656.1777452</v>
+        <v>56.82474529448271</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.9006676959636e-07</v>
+        <v>0.0001386855506836871</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>56.82474529448271</v>
+        <v>10.726966250958</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001386855506836871</v>
+        <v>1.183532505842436</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.726966250958</v>
+        <v>0.01595824189534178</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.183532505842436</v>
+        <v>2.975187364502521</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01595824189534178</v>
+        <v>0.9610228255648193</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.975187364502521</v>
+        <v>1.563905168908891</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9610228255648193</v>
+        <v>9</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.563905168908891</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.3833898877156987</v>
       </c>
     </row>
@@ -6078,72 +5976,66 @@
         <v>2.825876653659749e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.9830413390274135</v>
+        <v>1.062234100775968e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.06089281109929656</v>
+        <v>3.022486394096806e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.062234100775968e-06</v>
+        <v>-0.05669659513851334</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.022486394096806e-06</v>
+        <v>0.06239756749379537</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05669659513851334</v>
+        <v>0.007105761657786824</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.06239756749379537</v>
+        <v>1.835673261720987</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.007105761657786824</v>
+        <v>1.904848475663656</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.807820172016367</v>
+        <v>3.948954306327138</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.904848475663656</v>
+        <v>9.327537543402874e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.948954306327138</v>
+        <v>200667089.6029775</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>9.327537543402874e-16</v>
+        <v>5.923458156988809e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>200667089.6029775</v>
+        <v>37.55945738965987</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>5.923458156988809e-07</v>
+        <v>0.0001058709976184709</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>37.55945738965987</v>
+        <v>7.424554844783995</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001058709976184709</v>
+        <v>1.144313870119207</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.424554844783995</v>
+        <v>0.005836034423011365</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.144313870119207</v>
+        <v>3.254238778662045</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.005836034423011365</v>
+        <v>0.9613361235590896</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.254238778662045</v>
+        <v>1.581108003591849</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9613361235590896</v>
+        <v>9</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.581108003591849</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.4216891243571363</v>
       </c>
     </row>
@@ -6520,7 +6412,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.456893750732512</v>
+        <v>1.458124185555167</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.573770225649896</v>
@@ -6609,7 +6501,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.483318205901628</v>
+        <v>1.477229364168693</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.36321446354555</v>
@@ -6698,7 +6590,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.510297674043781</v>
+        <v>1.502378599047785</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.549114096836731</v>
@@ -6787,7 +6679,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.526625098038347</v>
+        <v>1.515076565169684</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.259418562549212</v>
@@ -6876,7 +6768,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.548435097440661</v>
+        <v>1.534145951694546</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.275328073969733</v>
@@ -6965,7 +6857,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.644749253107507</v>
+        <v>1.616166561966867</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.552490062324354</v>
@@ -7054,7 +6946,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.670931640394634</v>
+        <v>1.637996116282644</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.751820848250436</v>
@@ -7143,7 +7035,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.694810783173751</v>
+        <v>1.654784930979732</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.889822602164718</v>
@@ -7232,7 +7124,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.692625858482203</v>
+        <v>1.650997571967858</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.83578476829017</v>
@@ -7321,7 +7213,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.683195008272707</v>
+        <v>1.635871279306372</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.629015325432563</v>
@@ -7410,7 +7302,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.679096331592686</v>
+        <v>1.62632933225174</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.677770706382569</v>
@@ -7499,7 +7391,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.674332214376138</v>
+        <v>1.627262223406399</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.73438846523159</v>
@@ -7588,7 +7480,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.669490593339695</v>
+        <v>1.625915151203412</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.592339174498187</v>
@@ -7677,7 +7569,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.722700653391468</v>
+        <v>1.668815422286196</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.761631816781061</v>
@@ -7766,7 +7658,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.695818191472257</v>
+        <v>1.652291818840388</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.772686227312771</v>
@@ -7855,7 +7747,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.687362897886141</v>
+        <v>1.654107369943248</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.789766726390658</v>
@@ -7944,7 +7836,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.671013908076619</v>
+        <v>1.652231781967373</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.736365285567588</v>
@@ -8033,7 +7925,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.641506992035934</v>
+        <v>1.621490451730599</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.774337918645251</v>
@@ -8122,7 +8014,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.665490723683448</v>
+        <v>1.638247367000796</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.675852964099289</v>
@@ -8211,7 +8103,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.654575192450279</v>
+        <v>1.633001355773841</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.714709755556204</v>
@@ -8300,7 +8192,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.633714542526726</v>
+        <v>1.606985223481894</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.798929365211741</v>
@@ -8389,7 +8281,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.62036781359238</v>
+        <v>1.594108201581782</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.974232686009497</v>
@@ -8478,7 +8370,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.622147126872313</v>
+        <v>1.596120814195355</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.694446155754753</v>
@@ -8567,7 +8459,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.60278501597268</v>
+        <v>1.583348876708216</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.631573628849538</v>
@@ -8656,7 +8548,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.623617501404927</v>
+        <v>1.604261328696019</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.763598811263798</v>
@@ -8745,7 +8637,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.628135570332055</v>
+        <v>1.611776698192558</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.756851464126116</v>
@@ -8834,7 +8726,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.626483705126134</v>
+        <v>1.6074302837369</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.59943837384824</v>
@@ -8923,7 +8815,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.641811310485278</v>
+        <v>1.62470627004174</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.716091218955738</v>
@@ -9012,7 +8904,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.641890824099609</v>
+        <v>1.622663640512561</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.904062745872825</v>
@@ -9101,7 +8993,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.671483759006034</v>
+        <v>1.64374039503477</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.82249611038523</v>
@@ -9190,7 +9082,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.637084321568426</v>
+        <v>1.609451995403269</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.717048937583467</v>
@@ -9279,7 +9171,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.636847263011036</v>
+        <v>1.60444042537995</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.418383126010747</v>
@@ -9368,7 +9260,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.667092889860645</v>
+        <v>1.639071269213466</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.618534346449208</v>
@@ -9457,7 +9349,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.661909575658187</v>
+        <v>1.635318480922607</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.833245341628176</v>
@@ -9546,7 +9438,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.675976409892382</v>
+        <v>1.639048101937796</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.506698064212082</v>
@@ -9635,7 +9527,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.673332496205019</v>
+        <v>1.64245743067954</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.628436526287081</v>
@@ -9724,7 +9616,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.672042971214847</v>
+        <v>1.64403973939442</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.841138186691647</v>
@@ -9813,7 +9705,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.650433966048106</v>
+        <v>1.632916794411766</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.612036498923934</v>
@@ -9902,7 +9794,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.603248565904785</v>
+        <v>1.596054072026563</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.49453228756119</v>
@@ -9991,7 +9883,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.577150334425817</v>
+        <v>1.578777999558532</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.518208378175591</v>
@@ -10080,7 +9972,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.570627059024054</v>
+        <v>1.573997161603355</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.379342887999651</v>
@@ -10169,7 +10061,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.542473111721751</v>
+        <v>1.54985264264874</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.466379397335121</v>
@@ -10258,7 +10150,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.528921439420867</v>
+        <v>1.53580214371031</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.465056606957763</v>
@@ -10347,7 +10239,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.522788150803466</v>
+        <v>1.530409523254645</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.481435478604567</v>
@@ -10436,7 +10328,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.524921780988586</v>
+        <v>1.533370874669129</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.317320861825201</v>
@@ -10525,7 +10417,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.545665126627424</v>
+        <v>1.550676252705668</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.322597929740199</v>
@@ -10614,7 +10506,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.542573521705048</v>
+        <v>1.548975709123152</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.406533258595842</v>
@@ -10703,7 +10595,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.542499283175948</v>
+        <v>1.546922116434661</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.317686595414233</v>
@@ -10792,7 +10684,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.51983897170835</v>
+        <v>1.522297447719416</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.513212663592045</v>
@@ -10881,7 +10773,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.5182189215252</v>
+        <v>1.520624990816125</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.370984259813501</v>
@@ -10970,7 +10862,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.531576253076843</v>
+        <v>1.538094944692636</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.52554523969672</v>
@@ -11059,7 +10951,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.548828086412293</v>
+        <v>1.553866726242025</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.402134108480728</v>
@@ -11148,7 +11040,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.545428390836417</v>
+        <v>1.544185971045007</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.409940968294129</v>
@@ -11237,7 +11129,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.590671224430309</v>
+        <v>1.578936284710265</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.386184747820892</v>
@@ -11326,7 +11218,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.613446631518743</v>
+        <v>1.599334307951426</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.547716428283742</v>
@@ -11415,7 +11307,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.617074814853291</v>
+        <v>1.60263762409161</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.728189463117022</v>
@@ -11504,7 +11396,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.639371286364482</v>
+        <v>1.625364635419785</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.779058999932466</v>
@@ -11593,7 +11485,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.641136350695006</v>
+        <v>1.627453668092695</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.621371990253209</v>
@@ -11682,7 +11574,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.622938014642989</v>
+        <v>1.608156479902106</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.592729409058961</v>
@@ -11771,7 +11663,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.59321217163471</v>
+        <v>1.581005116070397</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.693373505334975</v>
@@ -11860,7 +11752,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.603089506647122</v>
+        <v>1.593435290719244</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.648314805212997</v>
@@ -12146,7 +12038,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.502985661019052</v>
+        <v>1.500412697248097</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.580231034452112</v>
@@ -12235,7 +12127,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.487572094119469</v>
+        <v>1.487518155331349</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.572706177016245</v>
@@ -12324,7 +12216,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.47684057343267</v>
+        <v>1.4790080749955</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.56090982619164</v>
@@ -12413,7 +12305,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.463039087097517</v>
+        <v>1.46510669801658</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.538300615220313</v>
@@ -12502,7 +12394,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.418645232201705</v>
+        <v>1.405883670458863</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.252155053046604</v>
@@ -12591,7 +12483,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.452500446259043</v>
+        <v>1.428614914769316</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.099066379026394</v>
@@ -12680,7 +12572,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.45640188215684</v>
+        <v>1.432156627130112</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.370676311990027</v>
@@ -12769,7 +12661,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.456596663626007</v>
+        <v>1.428803251572521</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.238804003984862</v>
@@ -12858,7 +12750,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.406557326442445</v>
+        <v>1.389428378298238</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.997911588937139</v>
@@ -12947,7 +12839,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.40646353567806</v>
+        <v>1.38436064112341</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.98033973241729</v>
@@ -13036,7 +12928,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.404295543526758</v>
+        <v>1.380922430925231</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.957604929408669</v>
@@ -13125,7 +13017,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.415894519937065</v>
+        <v>1.393414285177545</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.005596434332645</v>
@@ -13214,7 +13106,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.408847255518156</v>
+        <v>1.392784490205256</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.964438132812919</v>
@@ -13303,7 +13195,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.42256165950011</v>
+        <v>1.405796872662765</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.933156078192682</v>
@@ -13392,7 +13284,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.415772733923395</v>
+        <v>1.399039856789294</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.991551187636575</v>
@@ -13481,7 +13373,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.40478997780237</v>
+        <v>1.390547912526974</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.973390779077711</v>
@@ -13570,7 +13462,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.398570986873708</v>
+        <v>1.391999667987941</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.992748747725331</v>
@@ -13659,7 +13551,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.406169448016209</v>
+        <v>1.401073331829328</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.989635979545223</v>
@@ -13748,7 +13640,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.423510985175042</v>
+        <v>1.416578732510748</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.997841606469524</v>
@@ -13837,7 +13729,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.426041338861556</v>
+        <v>1.416067242635438</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.10192660189257</v>
@@ -13926,7 +13818,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.428615683912545</v>
+        <v>1.42148900038682</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.090873118052812</v>
@@ -14015,7 +13907,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.423105130475985</v>
+        <v>1.413080251024543</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.062408666843794</v>
@@ -14104,7 +13996,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.444967528519295</v>
+        <v>1.423857510032604</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.90775495667449</v>
@@ -14193,7 +14085,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.456363561834231</v>
+        <v>1.443444371752296</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.579305655420266</v>
@@ -14282,7 +14174,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.463730722829904</v>
+        <v>1.451140792705953</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.630127627377886</v>
@@ -14371,7 +14263,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.467813047332607</v>
+        <v>1.454844382700871</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.621575104874242</v>
@@ -14460,7 +14352,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.47903055998975</v>
+        <v>1.46117718229724</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.69572877888882</v>
@@ -14549,7 +14441,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.484651507250992</v>
+        <v>1.462670601751122</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.641181294169448</v>
@@ -14638,7 +14530,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.484531538726623</v>
+        <v>1.464907145523002</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.650978628194165</v>
@@ -14727,7 +14619,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.495471943032891</v>
+        <v>1.474989725854547</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.601302421491773</v>
@@ -14816,7 +14708,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.482479058091215</v>
+        <v>1.456698652141949</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.324135876254536</v>
@@ -14905,7 +14797,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.496261991689802</v>
+        <v>1.467859886998244</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.273654177432528</v>
@@ -14994,7 +14886,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.499214549110132</v>
+        <v>1.473569572872941</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.333423466630723</v>
@@ -15083,7 +14975,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.491123400845106</v>
+        <v>1.475624540953857</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.512794150657501</v>
@@ -15172,7 +15064,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.487188579919046</v>
+        <v>1.47227131202469</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.518773338683184</v>
@@ -15261,7 +15153,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.470919499055274</v>
+        <v>1.450723737529393</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.439591207037547</v>
@@ -15350,7 +15242,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.45043633588764</v>
+        <v>1.437308765156032</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.521275581479494</v>
@@ -15439,7 +15331,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.46239234296209</v>
+        <v>1.453191079372945</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.288689999517694</v>
@@ -15528,7 +15420,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.453102600187711</v>
+        <v>1.446874466347529</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.627441229121066</v>
@@ -15617,7 +15509,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.43762345301691</v>
+        <v>1.432984798122835</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.62917213690399</v>
@@ -15706,7 +15598,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.446752194544936</v>
+        <v>1.444343951274749</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.520347943629265</v>
@@ -15795,7 +15687,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.44072689602321</v>
+        <v>1.441764004940302</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.653100050170946</v>
@@ -15884,7 +15776,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.442704041239566</v>
+        <v>1.445337919881167</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.623875073456132</v>
@@ -15973,7 +15865,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.441935830016366</v>
+        <v>1.444450637413697</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.489843782904068</v>
@@ -16062,7 +15954,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.434084015257678</v>
+        <v>1.436913102596714</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.358739598480329</v>
@@ -16151,7 +16043,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.462653288404698</v>
+        <v>1.469235852418821</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.45246844759292</v>
@@ -16240,7 +16132,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.466673004145051</v>
+        <v>1.474174211182872</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.47306419732321</v>
@@ -16329,7 +16221,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.465725982630753</v>
+        <v>1.468917999063631</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.65910080665751</v>
@@ -16418,7 +16310,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.466023073594415</v>
+        <v>1.462101739945058</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.733315721459558</v>
@@ -16507,7 +16399,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.450314104093645</v>
+        <v>1.442194800532892</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.551986765688997</v>
@@ -16596,7 +16488,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.470123062104374</v>
+        <v>1.465933309885254</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.493069783195981</v>
@@ -16685,7 +16577,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.501420990215975</v>
+        <v>1.496816199100783</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.468395765525617</v>
@@ -16774,7 +16666,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.501938631979868</v>
+        <v>1.489189309823611</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.405808937240123</v>
@@ -16863,7 +16755,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.509050233404164</v>
+        <v>1.491897019304889</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.516022885014515</v>
@@ -16952,7 +16844,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.533713984292939</v>
+        <v>1.512204797688519</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.313345810962505</v>
@@ -17041,7 +16933,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.521765378308159</v>
+        <v>1.49797159856393</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.34877875802169</v>
@@ -17130,7 +17022,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.525673015334746</v>
+        <v>1.500192560254137</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.381882137458819</v>
@@ -17219,7 +17111,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.522781359930718</v>
+        <v>1.497568337528862</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.325475108808602</v>
@@ -17308,7 +17200,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.532101972381269</v>
+        <v>1.502459933194803</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.28340649588359</v>
@@ -17397,7 +17289,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.543503563043392</v>
+        <v>1.505191092842165</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.218405126330961</v>
@@ -17486,7 +17378,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.539859036002453</v>
+        <v>1.507128642500347</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.189203661471458</v>
@@ -17772,7 +17664,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.617971692149996</v>
+        <v>1.570796031627699</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.696149046604349</v>
@@ -17861,7 +17753,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.628116143184724</v>
+        <v>1.578233801403297</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.610582810694008</v>
@@ -17950,7 +17842,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.6368536496427</v>
+        <v>1.584929188301207</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.560126726218333</v>
@@ -18039,7 +17931,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.646211230517531</v>
+        <v>1.59490598665908</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.616833602787612</v>
@@ -18128,7 +18020,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.65204203952909</v>
+        <v>1.587040111557654</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.541173865331634</v>
@@ -18217,7 +18109,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.724459274165064</v>
+        <v>1.632516613200511</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.580194828491786</v>
@@ -18306,7 +18198,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.727824831159378</v>
+        <v>1.636297294302693</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.092165429100248</v>
@@ -18395,7 +18287,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.721104011692095</v>
+        <v>1.631229232962293</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.983987768583762</v>
@@ -18484,7 +18376,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.72644426766846</v>
+        <v>1.63143365280579</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.226347184215058</v>
@@ -18573,7 +18465,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.722859450816838</v>
+        <v>1.619037854386011</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.981545994499567</v>
@@ -18662,7 +18554,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.72909001864928</v>
+        <v>1.629974993782756</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.023416785288064</v>
@@ -18751,7 +18643,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.726436840992218</v>
+        <v>1.619664844945978</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.315058277112941</v>
@@ -18840,7 +18732,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.727743933775921</v>
+        <v>1.622737031041196</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.981651175988222</v>
@@ -18929,7 +18821,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.764106530876848</v>
+        <v>1.643650027062627</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.614192240313237</v>
@@ -19018,7 +18910,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.758161644727047</v>
+        <v>1.647085001378986</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.903217496702391</v>
@@ -19107,7 +18999,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.757771126371882</v>
+        <v>1.658881076034353</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.09411663831688</v>
@@ -19196,7 +19088,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.747470864928175</v>
+        <v>1.659198144194491</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.661940261349257</v>
@@ -19285,7 +19177,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.735228363366375</v>
+        <v>1.647805157516679</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.745623980941164</v>
@@ -19374,7 +19266,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.735918266820043</v>
+        <v>1.644808153103551</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.270840874112006</v>
@@ -19463,7 +19355,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.732614018525003</v>
+        <v>1.639262078349029</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.288478764379858</v>
@@ -19552,7 +19444,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.725677632024653</v>
+        <v>1.634564359544353</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.756902466643607</v>
@@ -19641,7 +19533,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.735933831849879</v>
+        <v>1.638625689622749</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.574643438983327</v>
@@ -19730,7 +19622,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.745247620174193</v>
+        <v>1.644983521239422</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.469167709653143</v>
@@ -19819,7 +19711,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.743469987419838</v>
+        <v>1.646811809259152</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.662600889118632</v>
@@ -19908,7 +19800,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.752440928209363</v>
+        <v>1.660126432846229</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.64982762034455</v>
@@ -19997,7 +19889,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.748042947882516</v>
+        <v>1.65819022594454</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.315247424708964</v>
@@ -20086,7 +19978,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.742999705981861</v>
+        <v>1.661132109362868</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.396584239560755</v>
@@ -20175,7 +20067,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.740544577975582</v>
+        <v>1.659507274042067</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.714769572056817</v>
@@ -20264,7 +20156,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.734202679017214</v>
+        <v>1.654740547413594</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.214833475077976</v>
@@ -20353,7 +20245,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.736722915952261</v>
+        <v>1.649269658724084</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.411209219591712</v>
@@ -20442,7 +20334,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.725498629475575</v>
+        <v>1.637548444973507</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.470103420300466</v>
@@ -20531,7 +20423,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.729090223150384</v>
+        <v>1.639304480023747</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.020939949352977</v>
@@ -20620,7 +20512,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.738762290655727</v>
+        <v>1.648553334724477</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.356811814917492</v>
@@ -20709,7 +20601,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.728896505971196</v>
+        <v>1.643530782472648</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.28053143815184</v>
@@ -20798,7 +20690,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.728153160444398</v>
+        <v>1.636207840454056</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.263748660236895</v>
@@ -20887,7 +20779,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.731246343556929</v>
+        <v>1.63600280372248</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.495674323291543</v>
@@ -20976,7 +20868,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.730614461508619</v>
+        <v>1.6417601184129</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.260688785932217</v>
@@ -21065,7 +20957,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.715622162788004</v>
+        <v>1.636492155572561</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.411329164586041</v>
@@ -21154,7 +21046,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.673179000915443</v>
+        <v>1.608801540987679</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.953273764618179</v>
@@ -21243,7 +21135,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.640280994946625</v>
+        <v>1.583790708298166</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.804654378613266</v>
@@ -21332,7 +21224,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.639451895790274</v>
+        <v>1.581088282311615</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.998965738075427</v>
@@ -21421,7 +21313,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.628019963871422</v>
+        <v>1.579512569670589</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.869906521578828</v>
@@ -21510,7 +21402,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.624075651939876</v>
+        <v>1.577360140010853</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.817968651727901</v>
@@ -21599,7 +21491,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.622746579713857</v>
+        <v>1.581242305176551</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.790639484273279</v>
@@ -21688,7 +21580,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.623913584106066</v>
+        <v>1.587127755906202</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.897765629744194</v>
@@ -21777,7 +21669,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.630391995555449</v>
+        <v>1.586019981999861</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.840156193761517</v>
@@ -21866,7 +21758,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.626055961651851</v>
+        <v>1.581847790672293</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.880786037644023</v>
@@ -21955,7 +21847,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.631688280326985</v>
+        <v>1.589254671172428</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.913298658644658</v>
@@ -22044,7 +21936,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.638659613912628</v>
+        <v>1.586017668578007</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.689957564624629</v>
@@ -22133,7 +22025,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.642097100472222</v>
+        <v>1.592347699670825</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.616536764195937</v>
@@ -22222,7 +22114,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.64118669217468</v>
+        <v>1.596435940097088</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.718825857300465</v>
@@ -22311,7 +22203,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.643728715904947</v>
+        <v>1.598116767582765</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.86701429407788</v>
@@ -22400,7 +22292,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.658548390457859</v>
+        <v>1.604787281015614</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.840694745081595</v>
@@ -22489,7 +22381,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.711914326241961</v>
+        <v>1.636049254533898</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.749196758954676</v>
@@ -22578,7 +22470,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.743702311712642</v>
+        <v>1.669970460452102</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.382982878713249</v>
@@ -22667,7 +22559,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.747404460128697</v>
+        <v>1.678168417480663</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.718005232713463</v>
@@ -22756,7 +22648,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.768215193968212</v>
+        <v>1.690839122632597</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.593316357102411</v>
@@ -22845,7 +22737,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.760477123367154</v>
+        <v>1.680295473149069</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.797613640154241</v>
@@ -22934,7 +22826,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.751309694204723</v>
+        <v>1.667544491166683</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.370191382085924</v>
@@ -23023,7 +22915,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.737843049404042</v>
+        <v>1.65825398841587</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.634380665585402</v>
@@ -23112,7 +23004,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.744254192314587</v>
+        <v>1.668485325676781</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.416487934072089</v>
@@ -23398,7 +23290,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.712200041799737</v>
+        <v>1.682669877052317</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.980305277967353</v>
@@ -23487,7 +23379,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.709871127809277</v>
+        <v>1.685431884200218</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.804683688669734</v>
@@ -23576,7 +23468,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.745755086296261</v>
+        <v>1.711862328456118</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.92531725752022</v>
@@ -23665,7 +23557,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.746151844011047</v>
+        <v>1.715973015351213</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.987845533037132</v>
@@ -23754,7 +23646,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.752036839493047</v>
+        <v>1.717420508909736</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.792202904408208</v>
@@ -23843,7 +23735,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.785801953172294</v>
+        <v>1.738708347248445</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.736200892904186</v>
@@ -23932,7 +23824,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.78901769152994</v>
+        <v>1.734708068926554</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.55442306134067</v>
@@ -24021,7 +23913,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.787667088239003</v>
+        <v>1.738577166796442</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.215028177958071</v>
@@ -24110,7 +24002,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.778376089294594</v>
+        <v>1.726812302545911</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.645268117825479</v>
@@ -24199,7 +24091,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.772857098756135</v>
+        <v>1.714054869104736</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.629601144021685</v>
@@ -24288,7 +24180,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.771289604197801</v>
+        <v>1.716981675729664</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.341639752384707</v>
@@ -24377,7 +24269,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.755157582653305</v>
+        <v>1.701519082887384</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.220703469576719</v>
@@ -24466,7 +24358,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.757522828945147</v>
+        <v>1.702842790500128</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.214766063833152</v>
@@ -24555,7 +24447,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.796044213865667</v>
+        <v>1.732334479277897</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.488513010420431</v>
@@ -24644,7 +24536,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.79462690849836</v>
+        <v>1.732450358076706</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.363609070937478</v>
@@ -24733,7 +24625,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.791651866601534</v>
+        <v>1.733364774292311</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.636903531114443</v>
@@ -24822,7 +24714,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.798784215561133</v>
+        <v>1.740431068492113</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.312437901286289</v>
@@ -24911,7 +24803,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.781649226309783</v>
+        <v>1.721957019226914</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.452484172439387</v>
@@ -25000,7 +24892,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.783546794560704</v>
+        <v>1.720369350656406</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.225365818375851</v>
@@ -25089,7 +24981,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.745024487288256</v>
+        <v>1.692601198472434</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.126214849444358</v>
@@ -25178,7 +25070,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.748690746295029</v>
+        <v>1.696065616049125</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.2746894224188</v>
@@ -25267,7 +25159,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.758371659223978</v>
+        <v>1.705924989344972</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.066182804768456</v>
@@ -25356,7 +25248,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.754089696655279</v>
+        <v>1.700610405341377</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.257781986994147</v>
@@ -25445,7 +25337,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.76110376220855</v>
+        <v>1.711803580987191</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.313059124896558</v>
@@ -25534,7 +25426,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.757659630770253</v>
+        <v>1.714882888550719</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.296857429596272</v>
@@ -25623,7 +25515,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.758928492089707</v>
+        <v>1.711490664868457</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.26269014020143</v>
@@ -25712,7 +25604,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.772108838297222</v>
+        <v>1.72497731795535</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.272384012133794</v>
@@ -25801,7 +25693,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.764963806814718</v>
+        <v>1.723037184092135</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.334625402769644</v>
@@ -25890,7 +25782,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.756385148680254</v>
+        <v>1.715432069698953</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.031216762615161</v>
@@ -25979,7 +25871,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.754412994592857</v>
+        <v>1.708347231746517</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.20663295597965</v>
@@ -26068,7 +25960,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.74296188196626</v>
+        <v>1.694066442823754</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.262885616900749</v>
@@ -26157,7 +26049,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.734720837035187</v>
+        <v>1.685540801776079</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.10236004334717</v>
@@ -26246,7 +26138,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.752575217920822</v>
+        <v>1.705136309531042</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.212050162423704</v>
@@ -26335,7 +26227,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.759695707106134</v>
+        <v>1.704570557757295</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.690031849864227</v>
@@ -26424,7 +26316,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.788083629943787</v>
+        <v>1.719959355100279</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.988489949694053</v>
@@ -26513,7 +26405,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.782754331929737</v>
+        <v>1.712157132398039</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.728848026783422</v>
@@ -26602,7 +26494,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.773161327543056</v>
+        <v>1.705155479879941</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.519120391583419</v>
@@ -26691,7 +26583,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.766053164215861</v>
+        <v>1.70949174281389</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.532186433088785</v>
@@ -26780,7 +26672,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.753607307729989</v>
+        <v>1.703857469023391</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.865077453324818</v>
@@ -26869,7 +26761,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.715912736238046</v>
+        <v>1.674000830905121</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.975538591326441</v>
@@ -26958,7 +26850,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.709699372954304</v>
+        <v>1.672754108237916</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.949789962693145</v>
@@ -27047,7 +26939,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.594151365951878</v>
+        <v>1.578494218820879</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.002162673259928</v>
@@ -27136,7 +27028,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.594928015787954</v>
+        <v>1.581565812113959</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.985721886254202</v>
@@ -27225,7 +27117,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.591630105341871</v>
+        <v>1.583870824700741</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.992720438652926</v>
@@ -27314,7 +27206,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.589059011947461</v>
+        <v>1.583674597448545</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.978474447785972</v>
@@ -27403,7 +27295,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.598224978447776</v>
+        <v>1.59090388761014</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.003229788457482</v>
@@ -27492,7 +27384,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.598764491308198</v>
+        <v>1.592389005580372</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.975992402335453</v>
@@ -27581,7 +27473,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.595045080961346</v>
+        <v>1.586857367692295</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.947663268161368</v>
@@ -27670,7 +27562,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.589484939821564</v>
+        <v>1.580907635104175</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.977273988476333</v>
@@ -27759,7 +27651,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.591368969987835</v>
+        <v>1.582992777351678</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.000322396388146</v>
@@ -27848,7 +27740,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.590574659270425</v>
+        <v>1.584213353927646</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.972908314356445</v>
@@ -27937,7 +27829,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.591997366600933</v>
+        <v>1.584694195138009</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.959934505488927</v>
@@ -28026,7 +27918,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.587316051114107</v>
+        <v>1.576208371370376</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.970079794283432</v>
@@ -28115,7 +28007,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.608735863533586</v>
+        <v>1.589671607367979</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.838112031072125</v>
@@ -28204,7 +28096,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.633817377610534</v>
+        <v>1.611266382358177</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.969215501016991</v>
@@ -28293,7 +28185,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.645474745191171</v>
+        <v>1.621396268707207</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.90556374555343</v>
@@ -28382,7 +28274,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.788200598568897</v>
+        <v>1.729622162235209</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.113421740715563</v>
@@ -28471,7 +28363,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.780879916963873</v>
+        <v>1.711858371498479</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.931346864501366</v>
@@ -28560,7 +28452,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.779109642917642</v>
+        <v>1.697686202044346</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.357084076181056</v>
@@ -28649,7 +28541,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.777837859712368</v>
+        <v>1.701842213806537</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.824949245838257</v>
@@ -28738,7 +28630,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.78012935213957</v>
+        <v>1.706246602055063</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.848591999664218</v>
@@ -29024,7 +28916,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.521951526380091</v>
+        <v>1.52733322519758</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.775584946482215</v>
@@ -29113,7 +29005,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.526619932986441</v>
+        <v>1.534653809650088</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.7266055098473</v>
@@ -29202,7 +29094,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.538215971867116</v>
+        <v>1.545735977477594</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.674396279997119</v>
@@ -29291,7 +29183,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.516756170219299</v>
+        <v>1.522983200241257</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.342820218925144</v>
@@ -29380,7 +29272,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.482897454615248</v>
+        <v>1.47972006810739</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.321771516439236</v>
@@ -29469,7 +29361,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.435264883498571</v>
+        <v>1.430818748729864</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.167457934174192</v>
@@ -29558,7 +29450,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.444951948371997</v>
+        <v>1.438778563864841</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.241417212801876</v>
@@ -29647,7 +29539,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.444010908068054</v>
+        <v>1.439342008280999</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.342814620799708</v>
@@ -29736,7 +29628,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.462196346606445</v>
+        <v>1.459271055959972</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.187536133554719</v>
@@ -29825,7 +29717,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.462424607430573</v>
+        <v>1.458319728777989</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.281504319852499</v>
@@ -29914,7 +29806,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.457339970128482</v>
+        <v>1.453938073742502</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.244957904448698</v>
@@ -30003,7 +29895,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.452908499117586</v>
+        <v>1.45209117838275</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.21563944881353</v>
@@ -30092,7 +29984,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.439972547329854</v>
+        <v>1.438397824852194</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.226972340459432</v>
@@ -30181,7 +30073,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.454675892144492</v>
+        <v>1.45240800701507</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.341018008605162</v>
@@ -30270,7 +30162,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.450472465786896</v>
+        <v>1.448427868551986</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.275736494669964</v>
@@ -30359,7 +30251,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.438149375356884</v>
+        <v>1.435849709732257</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.307413147650449</v>
@@ -30448,7 +30340,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.457083004581387</v>
+        <v>1.458824677707239</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.231419035407368</v>
@@ -30537,7 +30429,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.454467283608138</v>
+        <v>1.453172148251989</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.410134753755037</v>
@@ -30626,7 +30518,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.465010342575748</v>
+        <v>1.460486261752174</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.429738417696594</v>
@@ -30715,7 +30607,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.462408287456658</v>
+        <v>1.462173995712894</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.278227113569153</v>
@@ -30804,7 +30696,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.498735531836016</v>
+        <v>1.499626591528232</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.518121195856767</v>
@@ -30893,7 +30785,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.493045450595348</v>
+        <v>1.493696105649739</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.658633317343875</v>
@@ -30982,7 +30874,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.494790980151839</v>
+        <v>1.493660484541767</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.566656217613883</v>
@@ -31071,7 +30963,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.483324105344662</v>
+        <v>1.482206713439348</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.626335890030584</v>
@@ -31160,7 +31052,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.448176384123437</v>
+        <v>1.448257239159286</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.332473178251421</v>
@@ -31249,7 +31141,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.44892364675803</v>
+        <v>1.450944082819883</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.252619616420184</v>
@@ -31338,7 +31230,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.464909012581988</v>
+        <v>1.463315585531693</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.362562721148238</v>
@@ -31427,7 +31319,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.469323976271343</v>
+        <v>1.467938635505417</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.319589570199121</v>
@@ -31516,7 +31408,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.465244551587572</v>
+        <v>1.462538670048622</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.367124822569523</v>
@@ -31605,7 +31497,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.460862694467502</v>
+        <v>1.458414646067585</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.29912593105991</v>
@@ -31694,7 +31586,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.455582075780224</v>
+        <v>1.450159309000975</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.281678282280002</v>
@@ -31783,7 +31675,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.445322099446201</v>
+        <v>1.436699549196116</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.234177609535476</v>
@@ -31872,7 +31764,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.441848705865874</v>
+        <v>1.438765349466109</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.284423564736495</v>
@@ -31961,7 +31853,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.478206259990424</v>
+        <v>1.47847585073348</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.255607576333008</v>
@@ -32050,7 +31942,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.470664225192715</v>
+        <v>1.469377944383534</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.203354704162796</v>
@@ -32139,7 +32031,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.452311450952266</v>
+        <v>1.450137044872232</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.263277120039821</v>
@@ -32228,7 +32120,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.456118119728729</v>
+        <v>1.452694779593786</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.163083738583385</v>
@@ -32317,7 +32209,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.469063501093094</v>
+        <v>1.471034793822951</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.333536488895233</v>
@@ -32406,7 +32298,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.483484947113468</v>
+        <v>1.483419178137926</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.424960193508034</v>
@@ -32495,7 +32387,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.501786754941955</v>
+        <v>1.502011390584319</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.539789136799335</v>
@@ -32584,7 +32476,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.49230663504185</v>
+        <v>1.49410644695898</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.602148798809346</v>
@@ -32673,7 +32565,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.488848448813853</v>
+        <v>1.489611998716226</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.560315013681949</v>
@@ -32762,7 +32654,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.489214821817538</v>
+        <v>1.488209828012019</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.690705854581736</v>
@@ -32851,7 +32743,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.486857226614758</v>
+        <v>1.488811461072604</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.470398393774148</v>
@@ -32940,7 +32832,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.482846145979349</v>
+        <v>1.485322261245067</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.463292949375549</v>
@@ -33029,7 +32921,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.50800965265248</v>
+        <v>1.500639383915788</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.612146056182038</v>
@@ -33118,7 +33010,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.495438191379273</v>
+        <v>1.486009161832723</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.610853706920976</v>
@@ -33207,7 +33099,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.485545579929219</v>
+        <v>1.480007740247362</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.915701258928461</v>
@@ -33296,7 +33188,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.469473999084504</v>
+        <v>1.460028306849821</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.022170199244262</v>
@@ -33385,7 +33277,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.458639331784122</v>
+        <v>1.451323512891903</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.042553923044294</v>
@@ -33474,7 +33366,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.460185364180757</v>
+        <v>1.451155659591391</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.818021722517307</v>
@@ -33563,7 +33455,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.455112200398461</v>
+        <v>1.444319301904324</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.753606088271463</v>
@@ -33652,7 +33544,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.449419059189967</v>
+        <v>1.43896742923965</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.471970544933117</v>
@@ -33741,7 +33633,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.435152443671766</v>
+        <v>1.417630797631694</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.407977154800945</v>
@@ -33830,7 +33722,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.450463742534046</v>
+        <v>1.430545742210731</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.855572685349821</v>
@@ -33919,7 +33811,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.458720830874758</v>
+        <v>1.435142120175402</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.864961790243794</v>
@@ -34008,7 +33900,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.460519695056723</v>
+        <v>1.43441742584848</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.757107558278022</v>
@@ -34097,7 +33989,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.448326292916017</v>
+        <v>1.426289875850626</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.693150885381107</v>
@@ -34186,7 +34078,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.446621869139447</v>
+        <v>1.419154034276031</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.55170271787332</v>
@@ -34275,7 +34167,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.453005417131602</v>
+        <v>1.423598364459266</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.727284348810102</v>
@@ -34364,7 +34256,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.438470316836898</v>
+        <v>1.420966274028913</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.794740983753621</v>
@@ -34650,7 +34542,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.73009851703048</v>
+        <v>1.732603191532415</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.342166023662121</v>
@@ -34739,7 +34631,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.757369770582256</v>
+        <v>1.75127422609593</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.114737982826921</v>
@@ -34828,7 +34720,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.774533848248243</v>
+        <v>1.770307146515133</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.159007415879368</v>
@@ -34917,7 +34809,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.764722382472272</v>
+        <v>1.767410117757302</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.151188612767422</v>
@@ -35006,7 +34898,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.777128760225307</v>
+        <v>1.779861037944111</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.806434508216771</v>
@@ -35095,7 +34987,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.848846299926048</v>
+        <v>1.839234573845606</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.311859641122747</v>
@@ -35184,7 +35076,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.857954824638394</v>
+        <v>1.848025520233394</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.494355391414332</v>
@@ -35273,7 +35165,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.858630877373214</v>
+        <v>1.847479232042157</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.70227059263646</v>
@@ -35362,7 +35254,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.851059197112874</v>
+        <v>1.828789902453153</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.548267928536609</v>
@@ -35451,7 +35343,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.847663125462353</v>
+        <v>1.822874632042372</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.338341413974187</v>
@@ -35540,7 +35432,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.846150806215445</v>
+        <v>1.814870267897417</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.808111241672952</v>
@@ -35629,7 +35521,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.848784510687723</v>
+        <v>1.820619623193041</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.142221250342671</v>
@@ -35718,7 +35610,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.844119541167049</v>
+        <v>1.811459575058662</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.086963976119864</v>
@@ -35807,7 +35699,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.873619618653097</v>
+        <v>1.833961798244829</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.186094204311428</v>
@@ -35896,7 +35788,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.85102606693516</v>
+        <v>1.822530652391244</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.785927549238876</v>
@@ -35985,7 +35877,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.843861475486638</v>
+        <v>1.813563917038349</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.59288608826499</v>
@@ -36074,7 +35966,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.846228109081876</v>
+        <v>1.816698445108427</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.624951270132422</v>
@@ -36163,7 +36055,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.827824971053861</v>
+        <v>1.794457696320795</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.570491685040592</v>
@@ -36252,7 +36144,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.854110685389319</v>
+        <v>1.813273549931599</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.681004655015879</v>
@@ -36341,7 +36233,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.846799037167537</v>
+        <v>1.802302348611684</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.426896740818644</v>
@@ -36430,7 +36322,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.823929670944277</v>
+        <v>1.781054709522695</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.61542732693704</v>
@@ -36519,7 +36411,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.823942069776841</v>
+        <v>1.780438009537471</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.558652579388004</v>
@@ -36608,7 +36500,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.826747489229828</v>
+        <v>1.786432941424664</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.430508894921085</v>
@@ -36697,7 +36589,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.822718090572565</v>
+        <v>1.796240764173284</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.06693100833554</v>
@@ -36786,7 +36678,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.830837999418073</v>
+        <v>1.799398811895433</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.70242104505027</v>
@@ -36875,7 +36767,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.831852871931696</v>
+        <v>1.807177850960876</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.340585134532948</v>
@@ -36964,7 +36856,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.835090467841292</v>
+        <v>1.805290509506822</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.247897371980525</v>
@@ -37053,7 +36945,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.843495440989639</v>
+        <v>1.818665202000291</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.276205817391811</v>
@@ -37142,7 +37034,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.84308138200635</v>
+        <v>1.818047683785545</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.319792173149014</v>
@@ -37231,7 +37123,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.854658139317626</v>
+        <v>1.819039002324851</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.446844895915924</v>
@@ -37320,7 +37212,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.825273864010218</v>
+        <v>1.798546979546221</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.556478025620629</v>
@@ -37409,7 +37301,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.816186907748969</v>
+        <v>1.792999711796077</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.446588383247297</v>
@@ -37498,7 +37390,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.824454479239672</v>
+        <v>1.803409664866391</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.293792032692417</v>
@@ -37587,7 +37479,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.820882761247923</v>
+        <v>1.793533347974796</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.301261390876709</v>
@@ -37676,7 +37568,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.817442379328346</v>
+        <v>1.786301321509213</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.223443823371645</v>
@@ -37765,7 +37657,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.817519100343533</v>
+        <v>1.78450250988638</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.074879750909305</v>
@@ -37854,7 +37746,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.793699683383583</v>
+        <v>1.769247055430267</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.548651968404207</v>
@@ -37943,7 +37835,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.776519563328854</v>
+        <v>1.753437459808481</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.218384467355965</v>
@@ -38032,7 +37924,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.747579872965658</v>
+        <v>1.728942769849797</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.416178569190255</v>
@@ -38121,7 +38013,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.737948528105691</v>
+        <v>1.724316340940977</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.407302356710182</v>
@@ -38210,7 +38102,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.736540525801392</v>
+        <v>1.724510540383388</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.10842539865959</v>
@@ -38299,7 +38191,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.718562478797367</v>
+        <v>1.710335660971784</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.000039974321062</v>
@@ -38388,7 +38280,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.715654871883254</v>
+        <v>1.707367755768949</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.105279585382233</v>
@@ -38477,7 +38369,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.710252405102242</v>
+        <v>1.699802126435372</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.060535748495901</v>
@@ -38566,7 +38458,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.715512139586074</v>
+        <v>1.703921636426853</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.300783985195451</v>
@@ -38655,7 +38547,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.742085553755053</v>
+        <v>1.718260965224034</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.352853363459933</v>
@@ -38744,7 +38636,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.737178055186902</v>
+        <v>1.712552340648107</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.922120203157708</v>
@@ -38833,7 +38725,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.742323804013568</v>
+        <v>1.717457127468255</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.320341871727422</v>
@@ -38922,7 +38814,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.735881472646566</v>
+        <v>1.709563747197454</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.379407995862848</v>
@@ -39011,7 +38903,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.746401484913548</v>
+        <v>1.715505321799687</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.121620703429336</v>
@@ -39100,7 +38992,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.767396514041665</v>
+        <v>1.736286159703916</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.26637541321534</v>
@@ -39189,7 +39081,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.794690233772233</v>
+        <v>1.760026405462321</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.153774769364031</v>
@@ -39278,7 +39170,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.803155587033358</v>
+        <v>1.768414577647746</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.799653047798924</v>
@@ -39367,7 +39259,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.840429196647888</v>
+        <v>1.795600899089242</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.126286428353575</v>
@@ -39456,7 +39348,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.854260717504087</v>
+        <v>1.807506239821318</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.63162175805791</v>
@@ -39545,7 +39437,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.84859300326883</v>
+        <v>1.799658210602792</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.52592520405175</v>
@@ -39634,7 +39526,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.855119891564653</v>
+        <v>1.803138158137828</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.590069595980697</v>
@@ -39723,7 +39615,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.851247649053881</v>
+        <v>1.791467587380116</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.020597206054274</v>
@@ -39812,7 +39704,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.840727852938483</v>
+        <v>1.785164172034773</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.815606985007251</v>
@@ -39901,7 +39793,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.822587171698465</v>
+        <v>1.775583365075505</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.428012525645152</v>
@@ -39990,7 +39882,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.826922197634019</v>
+        <v>1.780886418929668</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.523500160134333</v>
